--- a/Assets/Resources/Stage0MapStatus.xlsx
+++ b/Assets/Resources/Stage0MapStatus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pimm\Desktop\UnityProject\GSG\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\MutantDefence\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8443DA15-D2E0-4AA2-9D0A-9ED99E3D5258}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5767CB84-4835-4B14-B8FA-3AEA3FE43038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="2115" windowWidth="21600" windowHeight="11385" xr2:uid="{A6887279-28D2-4084-952F-C2634235225D}"/>
+    <workbookView xWindow="3870" yWindow="1785" windowWidth="21600" windowHeight="11385" xr2:uid="{A6887279-28D2-4084-952F-C2634235225D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="L9" sqref="A1:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Resources/Stage0MapStatus.xlsx
+++ b/Assets/Resources/Stage0MapStatus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\MutantDefence\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5767CB84-4835-4B14-B8FA-3AEA3FE43038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4B51D7-376F-4867-B641-6F857B29EAEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="1785" windowWidth="21600" windowHeight="11385" xr2:uid="{A6887279-28D2-4084-952F-C2634235225D}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{A6887279-28D2-4084-952F-C2634235225D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="A1:L9"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -483,13 +483,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -618,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -632,10 +632,10 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -691,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>1</v>
